--- a/original/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセスフロー.xlsx
+++ b/original/7-8_システム要件定義/7_システム要件定義プロセスガイド/システム要件定義プロセスフロー.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">システム要件定義プロセスフロー!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -40,16 +40,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="19"/>
   </si>
@@ -59,6 +49,13 @@
   </si>
   <si>
     <t>の下に提供されています。</t>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -21913,7 +21910,9 @@
   </sheetPr>
   <dimension ref="A1:AH508"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4:AD4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23022,9 +23021,7 @@
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
-      <c r="R31" s="16" t="s">
-        <v>3</v>
-      </c>
+      <c r="R31" s="16"/>
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
@@ -23153,12 +23150,12 @@
     <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -23173,7 +23170,7 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S35" s="18"/>
       <c r="T35" s="6"/>
@@ -23192,7 +23189,11 @@
       <c r="AG35" s="6"/>
       <c r="AH35" s="6"/>
     </row>
-    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23671,7 +23672,7 @@
     <hyperlink ref="E35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
